--- a/Loans/TTC946-659-501.xlsx
+++ b/Loans/TTC946-659-501.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamesonhidalgo\Desktop\TTC_Database\Loans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885CBB49-8781-4FEC-8960-E503482D1AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BF83A0-FD84-4D2D-BB86-1565B72C2A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,27 +33,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>No.</t>
-  </si>
-  <si>
-    <t>Due Date</t>
-  </si>
-  <si>
-    <t>Payment Due</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>Principal</t>
   </si>
   <si>
     <t>Balance</t>
   </si>
   <si>
     <t>Remark/s</t>
+  </si>
+  <si>
+    <t>Payment Date</t>
+  </si>
+  <si>
+    <t>Repayment</t>
   </si>
 </sst>
 </file>
@@ -99,10 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -379,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -390,144 +383,83 @@
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:5">
       <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2">
+      <c r="D2">
         <v>50000</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>45322</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>2500</v>
       </c>
-      <c r="D3" s="2">
-        <v>500</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F3" s="2">
-        <f>F2-C3</f>
+      <c r="D3">
+        <f>D2-C3</f>
         <v>47500</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>45351</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>500</v>
       </c>
-      <c r="D4" s="2">
-        <v>50</v>
-      </c>
-      <c r="E4" s="2">
-        <v>150</v>
-      </c>
-      <c r="F4" s="2">
-        <f>F3-C4</f>
+      <c r="D4">
+        <f>D3-C4</f>
         <v>47000</v>
       </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:5">
       <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:5">
       <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:5">
       <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:5">
       <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:5">
       <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:5">
       <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:5">
       <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
